--- a/tables/Table_5.xlsx
+++ b/tables/Table_5.xlsx
@@ -109,7 +109,7 @@
     <t>Landform age boundary (ka)</t>
   </si>
   <si>
-    <t>± 1σ (range)</t>
+    <t>± 1σ</t>
   </si>
 </sst>
 </file>
@@ -221,29 +221,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,32 +565,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -616,10 +616,10 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="7"/>
@@ -645,7 +645,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="2"/>
       <c r="M5" s="8"/>
       <c r="N5" s="7"/>
@@ -671,7 +671,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2"/>
       <c r="M6" s="2"/>
     </row>
@@ -691,7 +691,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="2"/>
       <c r="M7" s="2"/>
     </row>
@@ -715,7 +715,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2"/>
     </row>
@@ -735,40 +735,25 @@
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="16" t="s">
+    <row r="10" spans="2:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:N2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
